--- a/posthoc_comparisons_Naive_pairwise.xlsx
+++ b/posthoc_comparisons_Naive_pairwise.xlsx
@@ -1,21 +1,251 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/lindsay_e_martin_vanderbilt_edu/Documents/Hillyer_Lab/Lytic_Immunity/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7EB43ECC8F79A8D366075C52F37BD272EA4D597D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CAC0AEC-1E67-481B-9C7E-636D1B70B0C1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>t.ratio</t>
+  </si>
+  <si>
+    <t>p.value</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-1.25)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-1.25)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-1.25)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered1.19 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered0.23 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered0.23 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered1.19 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered0.5) / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>Temperature_centered1.19 Age_centered0.5 / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>Temperature_centered0.23 Age_centered0.5 / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>Temperature_centered0.23 Age_centered0.5 / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>Temperature_centered0.23 Age_centered0.5 / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered1.48) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered1.48) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>Temperature_centered1.19 Age_centered1.48 / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +293,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +345,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +379,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +414,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,64 +590,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="48.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ratio</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>t.ratio</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>p.value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-1.25)</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0.58513140923786</v>
       </c>
       <c r="C2">
-        <v>0.1295893543851248</v>
+        <v>0.12958935438512481</v>
       </c>
       <c r="D2">
-        <v>69.81778813781885</v>
+        <v>69.817788137818852</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -416,23 +643,21 @@
         <v>-2.419820202558232</v>
       </c>
       <c r="G2">
-        <v>0.7011772039383032</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-1.25)</t>
-        </is>
+        <v>0.70117720393830318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7256740294695753</v>
+        <v>0.72567402946957527</v>
       </c>
       <c r="C3">
-        <v>0.09616026074676613</v>
+        <v>9.6160260746766132E-2</v>
       </c>
       <c r="D3">
-        <v>69.81778813781885</v>
+        <v>69.817788137818852</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -441,20 +666,18 @@
         <v>-2.419820202558232</v>
       </c>
       <c r="G3">
-        <v>0.7011772039383032</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
-        </is>
+        <v>0.70117720393830318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9101996590060552</v>
+        <v>0.91019965900605515</v>
       </c>
       <c r="C4">
-        <v>0.06609655151286803</v>
+        <v>6.6096551512868029E-2</v>
       </c>
       <c r="D4">
         <v>72.04279183478296</v>
@@ -466,14 +689,12 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G4">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0.5325864091620327</v>
@@ -488,26 +709,24 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-2.78761929604881</v>
+        <v>-2.7876192960488102</v>
       </c>
       <c r="G5">
-        <v>0.3644426103528788</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
-        </is>
+        <v>0.36444261035287878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6605082541727575</v>
+        <v>0.66050825417275749</v>
       </c>
       <c r="C6">
-        <v>0.09546795685235636</v>
+        <v>9.5467956852356359E-2</v>
       </c>
       <c r="D6">
-        <v>69.52718131498249</v>
+        <v>69.527181314982485</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -516,20 +735,18 @@
         <v>-2.869475158825705</v>
       </c>
       <c r="G6">
-        <v>0.3024175923366563</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
-        </is>
+        <v>0.30241759233665633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8096912545225232</v>
+        <v>0.80969125452252322</v>
       </c>
       <c r="C7">
-        <v>0.1319182943543284</v>
+        <v>0.13191829435432839</v>
       </c>
       <c r="D7">
         <v>72.04279183478296</v>
@@ -541,48 +758,44 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G7">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4737757848063348</v>
+        <v>0.47377578480633481</v>
       </c>
       <c r="C8">
-        <v>0.1238292691381681</v>
+        <v>0.12382926913816809</v>
       </c>
       <c r="D8">
-        <v>69.76198419954927</v>
+        <v>69.761984199549275</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>-2.858132887141797</v>
+        <v>-2.8581328871417968</v>
       </c>
       <c r="G8">
-        <v>0.3103309164679018</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+        <v>0.31033091646790179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5875719152956349</v>
+        <v>0.58757191529563491</v>
       </c>
       <c r="C9">
-        <v>0.117142587356354</v>
+        <v>0.11714258735635399</v>
       </c>
       <c r="D9">
-        <v>70.46789991839863</v>
+        <v>70.467899918398629</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -591,17 +804,15 @@
         <v>-2.667221797455035</v>
       </c>
       <c r="G9">
-        <v>0.466728808260766</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+        <v>0.46672880826076601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7194130965047019</v>
+        <v>0.71941309650470187</v>
       </c>
       <c r="C10">
         <v>0.1828472853464726</v>
@@ -616,17 +827,15 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G10">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4209511989819689</v>
+        <v>0.42095119898196892</v>
       </c>
       <c r="C11">
         <v>0.1346315033346222</v>
@@ -638,42 +847,38 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>-2.705333594169044</v>
+        <v>-2.7053335941690442</v>
       </c>
       <c r="G11">
-        <v>0.4327463779727505</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.43274637797275051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5220594005937514</v>
+        <v>0.52205940059375144</v>
       </c>
       <c r="C12">
-        <v>0.1433161400121687</v>
+        <v>0.14331614001216869</v>
       </c>
       <c r="D12">
-        <v>71.09315504532991</v>
+        <v>71.093155045329908</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>-2.367667635666314</v>
+        <v>-2.3676676356663142</v>
       </c>
       <c r="G12">
-        <v>0.7472774029776041</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-1.25)</t>
-        </is>
+        <v>0.74727740297760414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
       </c>
       <c r="B13">
         <v>1.240189841141452</v>
@@ -682,7 +887,7 @@
         <v>0.1103258841733156</v>
       </c>
       <c r="D13">
-        <v>69.81778813781885</v>
+        <v>69.817788137818852</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -691,23 +896,21 @@
         <v>2.419820202558232</v>
       </c>
       <c r="G13">
-        <v>0.701177203938301</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
-        </is>
+        <v>0.70117720393830096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
       </c>
       <c r="B14">
         <v>1.55554742855387</v>
       </c>
       <c r="C14">
-        <v>0.3732266849580725</v>
+        <v>0.37322668495807249</v>
       </c>
       <c r="D14">
-        <v>70.61788817382146</v>
+        <v>70.617888173821456</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -716,20 +919,18 @@
         <v>1.841464456795983</v>
       </c>
       <c r="G14">
-        <v>0.9915379247474805</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
-        </is>
+        <v>0.99153792474748048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.9101996590060552</v>
+        <v>0.91019965900605515</v>
       </c>
       <c r="C15">
-        <v>0.06609655151286803</v>
+        <v>6.6096551512868029E-2</v>
       </c>
       <c r="D15">
         <v>72.04279183478296</v>
@@ -741,23 +942,21 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G15">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>1.128820370509723</v>
+        <v>1.1288203705097231</v>
       </c>
       <c r="C16">
         <v>0.13588347432119</v>
       </c>
       <c r="D16">
-        <v>71.51219562885755</v>
+        <v>71.512195628857555</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -769,42 +968,38 @@
         <v>0.9999999999887732</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
-        </is>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
       </c>
       <c r="B17">
         <v>1.383776775164326</v>
       </c>
       <c r="C17">
-        <v>0.398360349312075</v>
+        <v>0.39836034931207498</v>
       </c>
       <c r="D17">
-        <v>71.40715273859195</v>
+        <v>71.407152738591947</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1.128309092943565</v>
+        <v>1.1283090929435651</v>
       </c>
       <c r="G17">
-        <v>0.9999999982045519</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
-        </is>
+        <v>0.99999999820455188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8096912545225232</v>
+        <v>0.80969125452252322</v>
       </c>
       <c r="C18">
-        <v>0.1319182943543284</v>
+        <v>0.13191829435432839</v>
       </c>
       <c r="D18">
         <v>72.04279183478296</v>
@@ -816,67 +1011,61 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G18">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>1.004170868319911</v>
+        <v>1.0041708683199111</v>
       </c>
       <c r="C19">
         <v>0.1941519793142823</v>
       </c>
       <c r="D19">
-        <v>72.0597903463901</v>
+        <v>72.059790346390102</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.02152723005071883</v>
+        <v>2.152723005071883E-2</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>1.22948979519275</v>
+        <v>1.2294897951927499</v>
       </c>
       <c r="C20">
-        <v>0.4346999082228413</v>
+        <v>0.43469990822284132</v>
       </c>
       <c r="D20">
-        <v>71.81045766471246</v>
+        <v>71.810457664712459</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0.5843380799890726</v>
+        <v>0.58433807998907261</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7194130965047019</v>
+        <v>0.71941309650470187</v>
       </c>
       <c r="C21">
         <v>0.1828472853464726</v>
@@ -891,45 +1080,41 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G21">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0.892208813869246</v>
       </c>
       <c r="C22">
-        <v>0.2476970641525578</v>
+        <v>0.24769706415255779</v>
       </c>
       <c r="D22">
-        <v>72.14738239140252</v>
+        <v>72.147382391402516</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>-0.4108282259586383</v>
+        <v>-0.41082822595863833</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
-        </is>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>28</v>
       </c>
       <c r="B23">
         <v>1.25428170506716</v>
       </c>
       <c r="C23">
-        <v>0.1974222636525541</v>
+        <v>0.19742226365255411</v>
       </c>
       <c r="D23">
         <v>71.09866251707507</v>
@@ -941,45 +1126,41 @@
         <v>1.439421768687009</v>
       </c>
       <c r="G23">
-        <v>0.9999844321421872</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
-        </is>
+        <v>0.99998443214218724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.733919621667213</v>
+        <v>0.73391962166721303</v>
       </c>
       <c r="C24">
-        <v>0.08000564065035225</v>
+        <v>8.0005640650352247E-2</v>
       </c>
       <c r="D24">
-        <v>69.8806491363168</v>
+        <v>69.880649136316805</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>-2.837828222583329</v>
+        <v>-2.8378282225833291</v>
       </c>
       <c r="G24">
-        <v>0.3251422499840285</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
-        </is>
+        <v>0.32514224998402852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.9101996590060552</v>
+        <v>0.91019965900605515</v>
       </c>
       <c r="C25">
-        <v>0.06609655151286803</v>
+        <v>6.6096551512868029E-2</v>
       </c>
       <c r="D25">
         <v>72.04279183478296</v>
@@ -991,14 +1172,12 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G25">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>31</v>
       </c>
       <c r="B26">
         <v>1.115778189160717</v>
@@ -1007,54 +1186,50 @@
         <v>0.2456232165507552</v>
       </c>
       <c r="D26">
-        <v>71.85945592049087</v>
+        <v>71.859455920490873</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0.4976558534200333</v>
+        <v>0.49765585342003332</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
-        </is>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6528768642204776</v>
+        <v>0.65287686422047764</v>
       </c>
       <c r="C27">
         <v>0.1159356375166104</v>
       </c>
       <c r="D27">
-        <v>71.03656726949768</v>
+        <v>71.036567269497681</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>-2.401030296730293</v>
+        <v>-2.4010302967302928</v>
       </c>
       <c r="G27">
-        <v>0.7174812527334388</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+        <v>0.71748125273343877</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.8096912545225232</v>
+        <v>0.80969125452252322</v>
       </c>
       <c r="C28">
-        <v>0.1319182943543284</v>
+        <v>0.13191829435432839</v>
       </c>
       <c r="D28">
         <v>72.04279183478296</v>
@@ -1066,67 +1241,61 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G28">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.9913722515749258</v>
+        <v>0.99137225157492581</v>
       </c>
       <c r="C29">
-        <v>0.295677352477327</v>
+        <v>0.29567735247732702</v>
       </c>
       <c r="D29">
-        <v>72.07454304890545</v>
+        <v>72.074543048905454</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>-0.02905336451613823</v>
+        <v>-2.9053364516138231E-2</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5800830426433466</v>
+        <v>0.58008304264334665</v>
       </c>
       <c r="C30">
-        <v>0.1512110820857019</v>
+        <v>0.15121108208570189</v>
       </c>
       <c r="D30">
-        <v>71.47968513893085</v>
+        <v>71.479685138930847</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>-2.089158707122513</v>
+        <v>-2.0891587071225128</v>
       </c>
       <c r="G30">
-        <v>0.9335784341315361</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.93357843413153607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.7194130965047019</v>
+        <v>0.71941309650470187</v>
       </c>
       <c r="C31">
         <v>0.1828472853464726</v>
@@ -1141,23 +1310,21 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G31">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered1.19 Age_centered-0.47)</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0.58513140923786</v>
       </c>
       <c r="C32">
-        <v>0.1295893543851248</v>
+        <v>0.12958935438512481</v>
       </c>
       <c r="D32">
-        <v>69.81778813781885</v>
+        <v>69.817788137818852</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1166,23 +1333,21 @@
         <v>-2.419820202558232</v>
       </c>
       <c r="G32">
-        <v>0.7011772039383032</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered0.23 Age_centered-0.47)</t>
-        </is>
+        <v>0.70117720393830318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.7256740294695753</v>
+        <v>0.72567402946957527</v>
       </c>
       <c r="C33">
-        <v>0.09616026074676613</v>
+        <v>9.6160260746766132E-2</v>
       </c>
       <c r="D33">
-        <v>69.81778813781885</v>
+        <v>69.817788137818852</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1191,20 +1356,18 @@
         <v>-2.419820202558232</v>
       </c>
       <c r="G33">
-        <v>0.7011772039383032</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
-        </is>
+        <v>0.70117720393830318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.8895754316220159</v>
+        <v>0.88957543162201591</v>
       </c>
       <c r="C34">
-        <v>0.08033449066921218</v>
+        <v>8.033449066921218E-2</v>
       </c>
       <c r="D34">
         <v>72.04279183478296</v>
@@ -1216,70 +1379,64 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G34">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5205185259283678</v>
+        <v>0.52051852592836778</v>
       </c>
       <c r="C35">
-        <v>0.1200230180970168</v>
+        <v>0.12002301809701681</v>
       </c>
       <c r="D35">
-        <v>69.43111411013956</v>
+        <v>69.431114110139561</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>-2.83164064608714</v>
+        <v>-2.8316406460871399</v>
       </c>
       <c r="G35">
-        <v>0.3302145396891359</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+        <v>0.33021453968913589</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>41</v>
       </c>
       <c r="B36">
         <v>0.6455417879822849</v>
       </c>
       <c r="C36">
-        <v>0.09853758338642718</v>
+        <v>9.853758338642718E-2</v>
       </c>
       <c r="D36">
-        <v>69.68635526247635</v>
+        <v>69.686355262476354</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>-2.867243666372491</v>
+        <v>-2.8672436663724912</v>
       </c>
       <c r="G36">
-        <v>0.3038563999874607</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+        <v>0.30385639998746072</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>42</v>
       </c>
       <c r="B37">
-        <v>0.7903904263052641</v>
+        <v>0.79039042630526413</v>
       </c>
       <c r="C37">
-        <v>0.1434907193456114</v>
+        <v>0.14349071934561139</v>
       </c>
       <c r="D37">
         <v>72.04279183478296</v>
@@ -1291,64 +1448,58 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G37">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4624822639921122</v>
+        <v>0.46248226399211217</v>
       </c>
       <c r="C38">
-        <v>0.1257190489290357</v>
+        <v>0.12571904892903571</v>
       </c>
       <c r="D38">
-        <v>69.88576638340676</v>
+        <v>69.885766383406761</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>-2.836816268133439</v>
+        <v>-2.8368162681334388</v>
       </c>
       <c r="G38">
-        <v>0.3258931992720193</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.32589319927201932</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5735658055111164</v>
+        <v>0.57356580551111636</v>
       </c>
       <c r="C39">
         <v>0.1225652484555662</v>
       </c>
       <c r="D39">
-        <v>70.63257188993352</v>
+        <v>70.632571889933516</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>-2.601351184730139</v>
+        <v>-2.6013511847301389</v>
       </c>
       <c r="G39">
         <v>0.5277678306236675</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered0.23 Age_centered-0.47)</t>
-        </is>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>45</v>
       </c>
       <c r="B40">
         <v>1.240189841141452</v>
@@ -1357,7 +1508,7 @@
         <v>0.1103258841733156</v>
       </c>
       <c r="D40">
-        <v>69.81778813781885</v>
+        <v>69.817788137818852</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1366,23 +1517,21 @@
         <v>2.419820202558232</v>
       </c>
       <c r="G40">
-        <v>0.701177203938301</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
-        </is>
+        <v>0.70117720393830096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>46</v>
       </c>
       <c r="B41">
         <v>1.520300256622179</v>
       </c>
       <c r="C41">
-        <v>0.3762248425518793</v>
+        <v>0.37622484255187932</v>
       </c>
       <c r="D41">
-        <v>70.80581918533019</v>
+        <v>70.805819185330193</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1391,20 +1540,18 @@
         <v>1.692779539733869</v>
       </c>
       <c r="G41">
-        <v>0.9986126666358474</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
-        </is>
+        <v>0.99861266663584736</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.8895754316220159</v>
+        <v>0.88957543162201591</v>
       </c>
       <c r="C42">
-        <v>0.08033449066921218</v>
+        <v>8.033449066921218E-2</v>
       </c>
       <c r="D42">
         <v>72.04279183478296</v>
@@ -1416,48 +1563,44 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G42">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>1.103242413226646</v>
+        <v>1.1032424132266461</v>
       </c>
       <c r="C43">
-        <v>0.1467353072483207</v>
+        <v>0.14673530724832071</v>
       </c>
       <c r="D43">
-        <v>71.713071163655</v>
+        <v>71.713071163655002</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>0.7387275911325581</v>
+        <v>0.73872759113255815</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>1.350791315979356</v>
+        <v>1.3507913159793561</v>
       </c>
       <c r="C44">
-        <v>0.4055084011753157</v>
+        <v>0.40550840117531572</v>
       </c>
       <c r="D44">
-        <v>71.51631337289463</v>
+        <v>71.516313372894629</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1466,20 +1609,18 @@
         <v>1.001632084669869</v>
       </c>
       <c r="G44">
-        <v>0.9999999999910901</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+        <v>0.99999999999109013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>0.7903904263052641</v>
+        <v>0.79039042630526413</v>
       </c>
       <c r="C45">
-        <v>0.1434907193456114</v>
+        <v>0.14349071934561139</v>
       </c>
       <c r="D45">
         <v>72.04279183478296</v>
@@ -1491,48 +1632,44 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G45">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.9802341772392497</v>
+        <v>0.98023417723924966</v>
       </c>
       <c r="C46">
-        <v>0.2059208290685821</v>
+        <v>0.20592082906858211</v>
       </c>
       <c r="D46">
-        <v>72.09197292661673</v>
+        <v>72.091972926616734</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>-0.09503253778559749</v>
+        <v>-9.503253778559749E-2</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
-        </is>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>52</v>
       </c>
       <c r="B47">
         <v>1.225860917569618</v>
       </c>
       <c r="C47">
-        <v>0.2055987111066457</v>
+        <v>0.20559871110664571</v>
       </c>
       <c r="D47">
-        <v>71.32772825597432</v>
+        <v>71.327728255974321</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1541,45 +1678,41 @@
         <v>1.214202501130883</v>
       </c>
       <c r="G47">
-        <v>0.9999999638872326</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
-        </is>
+        <v>0.99999996388723256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.7172897262271269</v>
+        <v>0.71728972622712694</v>
       </c>
       <c r="C48">
-        <v>0.08621788750835574</v>
+        <v>8.6217887508355739E-2</v>
       </c>
       <c r="D48">
-        <v>70.17741871055051</v>
+        <v>70.177418710550512</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>-2.764365555813291</v>
+        <v>-2.7643655558132911</v>
       </c>
       <c r="G48">
-        <v>0.3826011403979592</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+        <v>0.38260114039795923</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.8895754316220159</v>
+        <v>0.88957543162201591</v>
       </c>
       <c r="C49">
-        <v>0.08033449066921218</v>
+        <v>8.033449066921218E-2</v>
       </c>
       <c r="D49">
         <v>72.04279183478296</v>
@@ -1591,23 +1724,21 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G49">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>55</v>
       </c>
       <c r="B50">
         <v>1.089181084354077</v>
       </c>
       <c r="C50">
-        <v>0.2562975230701652</v>
+        <v>0.25629752307016518</v>
       </c>
       <c r="D50">
-        <v>71.92769512598902</v>
+        <v>71.927695125989018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1619,14 +1750,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.6373140628033213</v>
+        <v>0.63731406280332126</v>
       </c>
       <c r="C51">
         <v>0.1236014319631311</v>
@@ -1638,23 +1767,21 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>-2.322831824428076</v>
+        <v>-2.3228318244280759</v>
       </c>
       <c r="G51">
-        <v>0.7854519022372892</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.78545190223728922</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>57</v>
       </c>
       <c r="B52">
-        <v>0.7903904263052641</v>
+        <v>0.79039042630526413</v>
       </c>
       <c r="C52">
-        <v>0.1434907193456114</v>
+        <v>0.14349071934561139</v>
       </c>
       <c r="D52">
         <v>72.04279183478296</v>
@@ -1666,23 +1793,21 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G52">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered1.19 Age_centered0.5</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>58</v>
       </c>
       <c r="B53">
         <v>0.58513140923786</v>
       </c>
       <c r="C53">
-        <v>0.1295893543851248</v>
+        <v>0.12958935438512481</v>
       </c>
       <c r="D53">
-        <v>69.81778813781885</v>
+        <v>69.817788137818852</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1691,23 +1816,21 @@
         <v>-2.419820202558232</v>
       </c>
       <c r="G53">
-        <v>0.7011772039383032</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+        <v>0.70117720393830318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.7256740294695753</v>
+        <v>0.72567402946957527</v>
       </c>
       <c r="C54">
-        <v>0.09616026074676613</v>
+        <v>9.6160260746766132E-2</v>
       </c>
       <c r="D54">
-        <v>69.81778813781885</v>
+        <v>69.817788137818852</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1716,20 +1839,18 @@
         <v>-2.419820202558232</v>
       </c>
       <c r="G54">
-        <v>0.7011772039383032</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered0.5) / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+        <v>0.70117720393830318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.8885029849173084</v>
+        <v>0.88850298491730839</v>
       </c>
       <c r="C55">
-        <v>0.08106483388678601</v>
+        <v>8.1064833886786009E-2</v>
       </c>
       <c r="D55">
         <v>72.04279183478296</v>
@@ -1741,64 +1862,58 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G55">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.5198910036767097</v>
+        <v>0.51989100367670971</v>
       </c>
       <c r="C56">
-        <v>0.1200218718848119</v>
+        <v>0.12002187188481191</v>
       </c>
       <c r="D56">
-        <v>69.43256606077358</v>
+        <v>69.432566060773581</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>-2.83347915700251</v>
+        <v>-2.8334791570025102</v>
       </c>
       <c r="G56">
-        <v>0.328829809997669</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.32882980999766898</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.6447635412606885</v>
+        <v>0.64476354126068847</v>
       </c>
       <c r="C57">
-        <v>0.09872270792098532</v>
+        <v>9.8722707920985323E-2</v>
       </c>
       <c r="D57">
-        <v>69.69590741373312</v>
+        <v>69.695907413733124</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>-2.866295238750465</v>
+        <v>-2.8662952387504652</v>
       </c>
       <c r="G57">
-        <v>0.3045244527567436</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+        <v>0.30452445275674361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>63</v>
       </c>
       <c r="B58">
         <v>1.240189841141452</v>
@@ -1807,7 +1922,7 @@
         <v>0.1103258841733156</v>
       </c>
       <c r="D58">
-        <v>69.81778813781885</v>
+        <v>69.817788137818852</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1816,23 +1931,21 @@
         <v>2.419820202558232</v>
       </c>
       <c r="G58">
-        <v>0.701177203938301</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Temperature_centered1.19 Age_centered0.5 / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+        <v>0.70117720393830096</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>64</v>
       </c>
       <c r="B59">
         <v>1.518467426102784</v>
       </c>
       <c r="C59">
-        <v>0.3764169123262641</v>
+        <v>0.37641691232626412</v>
       </c>
       <c r="D59">
-        <v>70.81532817945126</v>
+        <v>70.815328179451257</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -1841,20 +1954,18 @@
         <v>1.685009845927107</v>
       </c>
       <c r="G59">
-        <v>0.9987561262813643</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+        <v>0.99875612628136434</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.8885029849173084</v>
+        <v>0.88850298491730839</v>
       </c>
       <c r="C60">
-        <v>0.08106483388678601</v>
+        <v>8.1064833886786009E-2</v>
       </c>
       <c r="D60">
         <v>72.04279183478296</v>
@@ -1866,48 +1977,44 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G60">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>66</v>
       </c>
       <c r="B61">
         <v>1.101912375718302</v>
       </c>
       <c r="C61">
-        <v>0.147325761955438</v>
+        <v>0.14732576195543801</v>
       </c>
       <c r="D61">
-        <v>71.72169318787095</v>
+        <v>71.721693187870954</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>0.7258574627389879</v>
+        <v>0.72585746273898788</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Temperature_centered0.23 Age_centered0.5 / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>1.224383054698473</v>
+        <v>1.2243830546984731</v>
       </c>
       <c r="C62">
-        <v>0.2060574281744265</v>
+        <v>0.20605742817442649</v>
       </c>
       <c r="D62">
-        <v>71.33845739467999</v>
+        <v>71.338457394679992</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1916,45 +2023,41 @@
         <v>1.202871174176831</v>
       </c>
       <c r="G62">
-        <v>0.9999999750899556</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Temperature_centered0.23 Age_centered0.5 / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+        <v>0.99999997508995564</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.7164249822426734</v>
+        <v>0.71642498224267337</v>
       </c>
       <c r="C63">
-        <v>0.08656664764375163</v>
+        <v>8.6566647643751632E-2</v>
       </c>
       <c r="D63">
-        <v>70.19255656622865</v>
+        <v>70.192556566228646</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>-2.759892572471558</v>
+        <v>-2.7598925724715579</v>
       </c>
       <c r="G63">
-        <v>0.3862838641771388</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Temperature_centered0.23 Age_centered0.5 / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.38628386417713878</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.8885029849173084</v>
+        <v>0.88850298491730839</v>
       </c>
       <c r="C64">
-        <v>0.08106483388678601</v>
+        <v>8.1064833886786009E-2</v>
       </c>
       <c r="D64">
         <v>72.04279183478296</v>
@@ -1966,23 +2069,21 @@
         <v>-1.295708557065711</v>
       </c>
       <c r="G64">
-        <v>0.9999995712960277</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered1.48) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+        <v>0.99999957129602768</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>70</v>
       </c>
       <c r="B65">
         <v>0.58513140923786</v>
       </c>
       <c r="C65">
-        <v>0.1295893543851248</v>
+        <v>0.12958935438512481</v>
       </c>
       <c r="D65">
-        <v>69.81778813781885</v>
+        <v>69.817788137818852</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -1991,23 +2092,21 @@
         <v>-2.419820202558232</v>
       </c>
       <c r="G65">
-        <v>0.7011772039383032</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered1.48) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.70117720393830318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.7256740294695753</v>
+        <v>0.72567402946957527</v>
       </c>
       <c r="C66">
-        <v>0.09616026074676613</v>
+        <v>9.6160260746766132E-2</v>
       </c>
       <c r="D66">
-        <v>69.81778813781885</v>
+        <v>69.817788137818852</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2016,14 +2115,12 @@
         <v>-2.419820202558232</v>
       </c>
       <c r="G66">
-        <v>0.7011772039383032</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Temperature_centered1.19 Age_centered1.48 / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.70117720393830318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>72</v>
       </c>
       <c r="B67">
         <v>1.240189841141452</v>
@@ -2032,7 +2129,7 @@
         <v>0.1103258841733156</v>
       </c>
       <c r="D67">
-        <v>69.81778813781885</v>
+        <v>69.817788137818852</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2041,7 +2138,7 @@
         <v>2.419820202558232</v>
       </c>
       <c r="G67">
-        <v>0.701177203938301</v>
+        <v>0.70117720393830096</v>
       </c>
     </row>
   </sheetData>
